--- a/SensorsSchedulerOutLight_clean.xlsx
+++ b/SensorsSchedulerOutLight_clean.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="9780" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralData2" sheetId="13" r:id="rId1"/>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2133,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2186,6 +2186,9 @@
       <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
       <c r="D3">
         <v>3</v>
       </c>
@@ -2194,6 +2197,9 @@
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
       <c r="D4">
         <v>6</v>
       </c>
@@ -2202,6 +2208,9 @@
       <c r="A5">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
       <c r="D5">
         <v>9</v>
       </c>
@@ -2210,6 +2219,9 @@
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
       <c r="D6">
         <v>12</v>
       </c>
@@ -2218,6 +2230,9 @@
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
       <c r="D7">
         <v>15</v>
       </c>
@@ -2226,6 +2241,9 @@
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
       <c r="D8">
         <v>18.25</v>
       </c>
@@ -2233,6 +2251,9 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="D9">
         <v>21.25</v>

--- a/SensorsSchedulerOutLight_clean.xlsx
+++ b/SensorsSchedulerOutLight_clean.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="9780" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="9780" tabRatio="889"/>
   </bookViews>
   <sheets>
-    <sheet name="GeneralData2" sheetId="13" r:id="rId1"/>
-    <sheet name="GeneralData1" sheetId="4" r:id="rId2"/>
-    <sheet name="FinalFlights" sheetId="5" r:id="rId3"/>
-    <sheet name="OutAssignment" sheetId="6" r:id="rId4"/>
-    <sheet name="InFlights" sheetId="7" r:id="rId5"/>
-    <sheet name="InUAVState" sheetId="8" r:id="rId6"/>
-    <sheet name="InMissions" sheetId="9" r:id="rId7"/>
-    <sheet name="MissionsLink" sheetId="10" r:id="rId8"/>
-    <sheet name="MissionsRange" sheetId="11" r:id="rId9"/>
+    <sheet name="GeneralData" sheetId="15" r:id="rId1"/>
+    <sheet name="GeneralData2" sheetId="13" r:id="rId2"/>
+    <sheet name="GeneralData1" sheetId="4" r:id="rId3"/>
+    <sheet name="FinalFlights" sheetId="5" r:id="rId4"/>
+    <sheet name="OutAssignment" sheetId="6" r:id="rId5"/>
+    <sheet name="InFlights" sheetId="7" r:id="rId6"/>
+    <sheet name="InUAVState" sheetId="8" r:id="rId7"/>
+    <sheet name="InMissions" sheetId="9" r:id="rId8"/>
+    <sheet name="MissionsLink" sheetId="10" r:id="rId9"/>
+    <sheet name="MissionsRange" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="100">
   <si>
     <t>UAV Types</t>
   </si>
@@ -321,13 +323,49 @@
   </si>
   <si>
     <t>P#</t>
+  </si>
+  <si>
+    <t>Mission Plan Propertes</t>
+  </si>
+  <si>
+    <t>Takeoff East</t>
+  </si>
+  <si>
+    <t>Takeoff North</t>
+  </si>
+  <si>
+    <t>Ref Area East (Km)</t>
+  </si>
+  <si>
+    <t>Ref Area North (Km)</t>
+  </si>
+  <si>
+    <t>Grid Resolution (Km)</t>
+  </si>
+  <si>
+    <t>TotalDuration (Hours)</t>
+  </si>
+  <si>
+    <t>Time Resolution (Hours)</t>
+  </si>
+  <si>
+    <t>Total Least Priority</t>
+  </si>
+  <si>
+    <t>NumOfStandOutAreas</t>
+  </si>
+  <si>
+    <t>StandOutArea  West-East (Km)</t>
+  </si>
+  <si>
+    <t>StandOutArea  South-North (Km)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,7 +414,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -450,7 +488,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -485,7 +522,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -661,24 +697,1833 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>85</v>
+      </c>
+      <c r="D4">
+        <v>85</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>85</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="42.75">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>40</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0.8</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0.8</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>30</v>
+      </c>
+      <c r="E1">
+        <v>19</v>
+      </c>
+      <c r="F1">
+        <v>18</v>
+      </c>
+      <c r="G1">
+        <v>18</v>
+      </c>
+      <c r="H1">
+        <v>37</v>
+      </c>
+      <c r="I1">
+        <v>25</v>
+      </c>
+      <c r="J1">
+        <v>19</v>
+      </c>
+      <c r="K1">
+        <v>20</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>33</v>
+      </c>
+      <c r="N1">
+        <v>44</v>
+      </c>
+      <c r="O1">
+        <v>50</v>
+      </c>
+      <c r="P1">
+        <v>19</v>
+      </c>
+      <c r="Q1">
+        <v>40</v>
+      </c>
+      <c r="R1">
+        <v>25</v>
+      </c>
+      <c r="S1">
+        <v>21</v>
+      </c>
+      <c r="T1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>37</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>33</v>
+      </c>
+      <c r="N2">
+        <v>44</v>
+      </c>
+      <c r="O2">
+        <v>50</v>
+      </c>
+      <c r="P2">
+        <v>19</v>
+      </c>
+      <c r="Q2">
+        <v>40</v>
+      </c>
+      <c r="R2">
+        <v>25</v>
+      </c>
+      <c r="S2">
+        <v>21</v>
+      </c>
+      <c r="T2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>37</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <v>33</v>
+      </c>
+      <c r="N3">
+        <v>44</v>
+      </c>
+      <c r="O3">
+        <v>50</v>
+      </c>
+      <c r="P3">
+        <v>19</v>
+      </c>
+      <c r="Q3">
+        <v>40</v>
+      </c>
+      <c r="R3">
+        <v>25</v>
+      </c>
+      <c r="S3">
+        <v>21</v>
+      </c>
+      <c r="T3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>39</v>
+      </c>
+      <c r="G4">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>41</v>
+      </c>
+      <c r="I4">
+        <v>44</v>
+      </c>
+      <c r="J4">
+        <v>29</v>
+      </c>
+      <c r="K4">
+        <v>44</v>
+      </c>
+      <c r="L4">
+        <v>34</v>
+      </c>
+      <c r="M4">
+        <v>41</v>
+      </c>
+      <c r="N4">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>33</v>
+      </c>
+      <c r="P4">
+        <v>29</v>
+      </c>
+      <c r="Q4">
+        <v>43</v>
+      </c>
+      <c r="R4">
+        <v>44</v>
+      </c>
+      <c r="S4">
+        <v>33</v>
+      </c>
+      <c r="T4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>16</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>18</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>33</v>
+      </c>
+      <c r="O5">
+        <v>34</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>21</v>
+      </c>
+      <c r="R5">
+        <v>16</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>23</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>17</v>
+      </c>
+      <c r="N6">
+        <v>45</v>
+      </c>
+      <c r="O6">
+        <v>45</v>
+      </c>
+      <c r="P6">
+        <v>12</v>
+      </c>
+      <c r="Q6">
+        <v>26</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>9</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>31</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>13</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>15</v>
+      </c>
+      <c r="N7">
+        <v>36</v>
+      </c>
+      <c r="O7">
+        <v>36</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>22</v>
+      </c>
+      <c r="R7">
+        <v>13</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>28</v>
+      </c>
+      <c r="L8">
+        <v>27</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>35</v>
+      </c>
+      <c r="O8">
+        <v>27</v>
+      </c>
+      <c r="P8">
+        <v>18</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>22</v>
+      </c>
+      <c r="S8">
+        <v>16</v>
+      </c>
+      <c r="T8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>22</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>48</v>
+      </c>
+      <c r="O9">
+        <v>46</v>
+      </c>
+      <c r="P9">
+        <v>16</v>
+      </c>
+      <c r="Q9">
+        <v>23</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <v>11</v>
+      </c>
+      <c r="M10">
+        <v>15</v>
+      </c>
+      <c r="N10">
+        <v>33</v>
+      </c>
+      <c r="O10">
+        <v>34</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>21</v>
+      </c>
+      <c r="R10">
+        <v>16</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="J11">
+        <v>18</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>11</v>
+      </c>
+      <c r="M11">
+        <v>21</v>
+      </c>
+      <c r="N11">
+        <v>51</v>
+      </c>
+      <c r="O11">
+        <v>50</v>
+      </c>
+      <c r="P11">
+        <v>18</v>
+      </c>
+      <c r="Q11">
+        <v>30</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>15</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>22</v>
+      </c>
+      <c r="N12">
+        <v>42</v>
+      </c>
+      <c r="O12">
+        <v>44</v>
+      </c>
+      <c r="P12">
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <v>30</v>
+      </c>
+      <c r="R12">
+        <v>13</v>
+      </c>
+      <c r="S12">
+        <v>11</v>
+      </c>
+      <c r="T12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>41</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>15</v>
+      </c>
+      <c r="K13">
+        <v>21</v>
+      </c>
+      <c r="L13">
+        <v>22</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>39</v>
+      </c>
+      <c r="O13">
+        <v>33</v>
+      </c>
+      <c r="P13">
+        <v>15</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+      <c r="R13">
+        <v>15</v>
+      </c>
+      <c r="S13">
+        <v>12</v>
+      </c>
+      <c r="T13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>36</v>
+      </c>
+      <c r="H14">
+        <v>35</v>
+      </c>
+      <c r="I14">
+        <v>48</v>
+      </c>
+      <c r="J14">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>51</v>
+      </c>
+      <c r="L14">
+        <v>42</v>
+      </c>
+      <c r="M14">
+        <v>39</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>15</v>
+      </c>
+      <c r="P14">
+        <v>33</v>
+      </c>
+      <c r="Q14">
+        <v>37</v>
+      </c>
+      <c r="R14">
+        <v>48</v>
+      </c>
+      <c r="S14">
+        <v>36</v>
+      </c>
+      <c r="T14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>34</v>
+      </c>
+      <c r="F15">
+        <v>45</v>
+      </c>
+      <c r="G15">
+        <v>36</v>
+      </c>
+      <c r="H15">
+        <v>27</v>
+      </c>
+      <c r="I15">
+        <v>46</v>
+      </c>
+      <c r="J15">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>50</v>
+      </c>
+      <c r="L15">
+        <v>44</v>
+      </c>
+      <c r="M15">
+        <v>33</v>
+      </c>
+      <c r="N15">
+        <v>15</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>34</v>
+      </c>
+      <c r="Q15">
+        <v>28</v>
+      </c>
+      <c r="R15">
+        <v>46</v>
+      </c>
+      <c r="S15">
+        <v>35</v>
+      </c>
+      <c r="T15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <v>15</v>
+      </c>
+      <c r="N16">
+        <v>33</v>
+      </c>
+      <c r="O16">
+        <v>34</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>21</v>
+      </c>
+      <c r="R16">
+        <v>16</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>43</v>
+      </c>
+      <c r="E17">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="G17">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>23</v>
+      </c>
+      <c r="J17">
+        <v>21</v>
+      </c>
+      <c r="K17">
+        <v>30</v>
+      </c>
+      <c r="L17">
+        <v>30</v>
+      </c>
+      <c r="M17">
+        <v>8</v>
+      </c>
+      <c r="N17">
+        <v>37</v>
+      </c>
+      <c r="O17">
+        <v>28</v>
+      </c>
+      <c r="P17">
+        <v>21</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>23</v>
+      </c>
+      <c r="S17">
+        <v>19</v>
+      </c>
+      <c r="T17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>44</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>22</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>13</v>
+      </c>
+      <c r="M18">
+        <v>15</v>
+      </c>
+      <c r="N18">
+        <v>48</v>
+      </c>
+      <c r="O18">
+        <v>46</v>
+      </c>
+      <c r="P18">
+        <v>16</v>
+      </c>
+      <c r="Q18">
+        <v>23</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <v>11</v>
+      </c>
+      <c r="M19">
+        <v>12</v>
+      </c>
+      <c r="N19">
+        <v>36</v>
+      </c>
+      <c r="O19">
+        <v>35</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>19</v>
+      </c>
+      <c r="R19">
+        <v>12</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>22</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>13</v>
+      </c>
+      <c r="M20">
+        <v>15</v>
+      </c>
+      <c r="N20">
+        <v>48</v>
+      </c>
+      <c r="O20">
+        <v>46</v>
+      </c>
+      <c r="P20">
+        <v>16</v>
+      </c>
+      <c r="Q20">
+        <v>23</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -698,7 +2543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -721,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -744,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -767,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -790,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -813,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -833,274 +2678,6 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>40</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>40</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>40</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>40</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
         <v>1</v>
       </c>
     </row>
@@ -1110,16 +2687,302 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="42.75">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="E14">
+        <f>48000/40</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="E16">
+        <f>20*60</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17">
+        <f>E16*E8</f>
+        <v>48000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="42.75">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1178,7 +3041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1237,7 +3100,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1296,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1355,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1414,7 +3277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1473,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1532,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1591,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1655,17 +3518,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -1682,7 +3545,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1699,7 +3562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1716,7 +3579,7 @@
         <v>4.5051993223490374</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1733,7 +3596,7 @@
         <v>10.905199322349038</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1750,7 +3613,7 @@
         <v>10.905199322349038</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1767,7 +3630,7 @@
         <v>17.30519932234904</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1784,7 +3647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1801,7 +3664,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1818,7 +3681,7 @@
         <v>20.879662218662567</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1835,7 +3698,7 @@
         <v>7.5051993223490374</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1852,7 +3715,7 @@
         <v>13.905199322349038</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1869,7 +3732,7 @@
         <v>14.725450808175184</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1886,7 +3749,7 @@
         <v>15.625450808175184</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1903,7 +3766,7 @@
         <v>17.859631306702553</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1920,7 +3783,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1937,7 +3800,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1954,7 +3817,7 @@
         <v>15.362539808513448</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1971,7 +3834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1988,7 +3851,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>4</v>
       </c>
@@ -2005,7 +3868,7 @@
         <v>20.170416345659799</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>4</v>
       </c>
@@ -2022,7 +3885,7 @@
         <v>21.070416345659797</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>4</v>
       </c>
@@ -2039,7 +3902,7 @@
         <v>22.779674225559727</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2056,7 +3919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2073,7 +3936,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>5</v>
       </c>
@@ -2090,7 +3953,7 @@
         <v>19.282426463519457</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>5</v>
       </c>
@@ -2107,7 +3970,7 @@
         <v>20.032426463519457</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>5</v>
       </c>
@@ -2129,17 +3992,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="28.5">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2168,7 +4031,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2182,7 +4045,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2193,7 +4056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2204,7 +4067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2215,7 +4078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2226,7 +4089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2237,7 +4100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2248,7 +4111,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2264,20 +4127,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="57">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -2306,7 +4169,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -2335,7 +4198,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -2364,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -2393,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2422,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -2451,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -2480,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -2509,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -2538,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -2567,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -2596,7 +4459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -2625,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -2654,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -2683,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -2712,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -2741,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -2770,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -2804,17 +4667,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:23" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="28.5">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -2836,12 +4700,24 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
+        <v>73</v>
+      </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -2851,7 +4727,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2871,7 +4747,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2891,7 +4767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2910,8 +4786,37 @@
       <c r="F4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <v>9.75</v>
+      </c>
+      <c r="N4">
+        <v>11.75</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <f>R5+1/3</f>
+        <v>10.583333333333334</v>
+      </c>
+      <c r="R4">
+        <f>Q4+O4</f>
+        <v>11.583333333333334</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2930,8 +4835,37 @@
       <c r="F5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>8.5</v>
+      </c>
+      <c r="N5">
+        <v>11.5</v>
+      </c>
+      <c r="O5">
+        <v>1.75</v>
+      </c>
+      <c r="Q5">
+        <f>M5</f>
+        <v>8.5</v>
+      </c>
+      <c r="R5">
+        <f>M5+O5</f>
+        <v>10.25</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2950,8 +4884,37 @@
       <c r="F6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>12.5</v>
+      </c>
+      <c r="N6">
+        <v>14.5</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f>R7+1/3</f>
+        <v>13.500000000000002</v>
+      </c>
+      <c r="R6">
+        <f>Q6+O6</f>
+        <v>14.500000000000002</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2970,8 +4933,37 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>10.5</v>
+      </c>
+      <c r="N7">
+        <v>13.5</v>
+      </c>
+      <c r="O7">
+        <v>1.25</v>
+      </c>
+      <c r="Q7">
+        <f>R4+1/3</f>
+        <v>11.916666666666668</v>
+      </c>
+      <c r="R7">
+        <f>Q7+O7</f>
+        <v>13.166666666666668</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2991,7 +4983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3011,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3030,8 +5022,34 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>20</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <f>M10</f>
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <f>Q10+O10</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3050,8 +5068,34 @@
       <c r="F11">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <v>20</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f>M11</f>
+        <v>18</v>
+      </c>
+      <c r="R11">
+        <f>Q11+O11</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3070,8 +5114,34 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>19</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>18</v>
+      </c>
+      <c r="N12">
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f>R11+0.3</f>
+        <v>19.3</v>
+      </c>
+      <c r="R12">
+        <f>Q12+O12</f>
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3091,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3111,7 +5181,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3131,7 +5201,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3150,8 +5220,34 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>19</v>
+      </c>
+      <c r="N16">
+        <v>21</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f>M16</f>
+        <v>19</v>
+      </c>
+      <c r="R16">
+        <f>O16+Q16</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3170,8 +5266,34 @@
       <c r="F17">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>18.5</v>
+      </c>
+      <c r="N17">
+        <v>21.5</v>
+      </c>
+      <c r="O17">
+        <v>1.25</v>
+      </c>
+      <c r="Q17">
+        <f>R16+0.3</f>
+        <v>20.3</v>
+      </c>
+      <c r="R17">
+        <f>Q17+O17</f>
+        <v>21.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3191,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3210,8 +5332,34 @@
       <c r="F19">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>12.5</v>
+      </c>
+      <c r="N19">
+        <v>14.5</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <f>R21+0.3</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="R19">
+        <f>Q19+O19</f>
+        <v>14.600000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3230,8 +5378,34 @@
       <c r="F20">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>18</v>
+      </c>
+      <c r="N20">
+        <v>20</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <f>M20</f>
+        <v>18</v>
+      </c>
+      <c r="R20">
+        <f>+Q20+O20</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3250,8 +5424,34 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21">
+        <v>12</v>
+      </c>
+      <c r="N21">
+        <v>14</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <f>M21+0.3</f>
+        <v>12.3</v>
+      </c>
+      <c r="R21">
+        <f>Q21+O21</f>
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3276,17 +5476,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="28.5">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -3306,7 +5506,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -3326,7 +5526,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3346,7 +5546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3366,7 +5566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3386,7 +5586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>8</v>
       </c>
@@ -3406,7 +5606,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>10</v>
       </c>
@@ -3426,7 +5626,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>18</v>
       </c>
@@ -3444,1261 +5644,6 @@
       </c>
       <c r="F8">
         <v>13.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:T20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>30</v>
-      </c>
-      <c r="E1">
-        <v>19</v>
-      </c>
-      <c r="F1">
-        <v>18</v>
-      </c>
-      <c r="G1">
-        <v>18</v>
-      </c>
-      <c r="H1">
-        <v>37</v>
-      </c>
-      <c r="I1">
-        <v>25</v>
-      </c>
-      <c r="J1">
-        <v>19</v>
-      </c>
-      <c r="K1">
-        <v>20</v>
-      </c>
-      <c r="L1">
-        <v>12</v>
-      </c>
-      <c r="M1">
-        <v>33</v>
-      </c>
-      <c r="N1">
-        <v>44</v>
-      </c>
-      <c r="O1">
-        <v>50</v>
-      </c>
-      <c r="P1">
-        <v>19</v>
-      </c>
-      <c r="Q1">
-        <v>40</v>
-      </c>
-      <c r="R1">
-        <v>25</v>
-      </c>
-      <c r="S1">
-        <v>21</v>
-      </c>
-      <c r="T1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>18</v>
-      </c>
-      <c r="H2">
-        <v>37</v>
-      </c>
-      <c r="I2">
-        <v>25</v>
-      </c>
-      <c r="J2">
-        <v>19</v>
-      </c>
-      <c r="K2">
-        <v>20</v>
-      </c>
-      <c r="L2">
-        <v>12</v>
-      </c>
-      <c r="M2">
-        <v>33</v>
-      </c>
-      <c r="N2">
-        <v>44</v>
-      </c>
-      <c r="O2">
-        <v>50</v>
-      </c>
-      <c r="P2">
-        <v>19</v>
-      </c>
-      <c r="Q2">
-        <v>40</v>
-      </c>
-      <c r="R2">
-        <v>25</v>
-      </c>
-      <c r="S2">
-        <v>21</v>
-      </c>
-      <c r="T2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>19</v>
-      </c>
-      <c r="F3">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>37</v>
-      </c>
-      <c r="I3">
-        <v>25</v>
-      </c>
-      <c r="J3">
-        <v>19</v>
-      </c>
-      <c r="K3">
-        <v>20</v>
-      </c>
-      <c r="L3">
-        <v>12</v>
-      </c>
-      <c r="M3">
-        <v>33</v>
-      </c>
-      <c r="N3">
-        <v>44</v>
-      </c>
-      <c r="O3">
-        <v>50</v>
-      </c>
-      <c r="P3">
-        <v>19</v>
-      </c>
-      <c r="Q3">
-        <v>40</v>
-      </c>
-      <c r="R3">
-        <v>25</v>
-      </c>
-      <c r="S3">
-        <v>21</v>
-      </c>
-      <c r="T3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>29</v>
-      </c>
-      <c r="F4">
-        <v>39</v>
-      </c>
-      <c r="G4">
-        <v>31</v>
-      </c>
-      <c r="H4">
-        <v>41</v>
-      </c>
-      <c r="I4">
-        <v>44</v>
-      </c>
-      <c r="J4">
-        <v>29</v>
-      </c>
-      <c r="K4">
-        <v>44</v>
-      </c>
-      <c r="L4">
-        <v>34</v>
-      </c>
-      <c r="M4">
-        <v>41</v>
-      </c>
-      <c r="N4">
-        <v>20</v>
-      </c>
-      <c r="O4">
-        <v>33</v>
-      </c>
-      <c r="P4">
-        <v>29</v>
-      </c>
-      <c r="Q4">
-        <v>43</v>
-      </c>
-      <c r="R4">
-        <v>44</v>
-      </c>
-      <c r="S4">
-        <v>33</v>
-      </c>
-      <c r="T4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>29</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>18</v>
-      </c>
-      <c r="I5">
-        <v>16</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>18</v>
-      </c>
-      <c r="L5">
-        <v>11</v>
-      </c>
-      <c r="M5">
-        <v>15</v>
-      </c>
-      <c r="N5">
-        <v>33</v>
-      </c>
-      <c r="O5">
-        <v>34</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>21</v>
-      </c>
-      <c r="R5">
-        <v>16</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>39</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
-      <c r="H6">
-        <v>23</v>
-      </c>
-      <c r="I6">
-        <v>7</v>
-      </c>
-      <c r="J6">
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>7</v>
-      </c>
-      <c r="M6">
-        <v>17</v>
-      </c>
-      <c r="N6">
-        <v>45</v>
-      </c>
-      <c r="O6">
-        <v>45</v>
-      </c>
-      <c r="P6">
-        <v>12</v>
-      </c>
-      <c r="Q6">
-        <v>26</v>
-      </c>
-      <c r="R6">
-        <v>7</v>
-      </c>
-      <c r="S6">
-        <v>9</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>19</v>
-      </c>
-      <c r="I7">
-        <v>13</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>15</v>
-      </c>
-      <c r="L7">
-        <v>8</v>
-      </c>
-      <c r="M7">
-        <v>15</v>
-      </c>
-      <c r="N7">
-        <v>36</v>
-      </c>
-      <c r="O7">
-        <v>36</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>22</v>
-      </c>
-      <c r="R7">
-        <v>13</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>37</v>
-      </c>
-      <c r="B8">
-        <v>37</v>
-      </c>
-      <c r="C8">
-        <v>37</v>
-      </c>
-      <c r="D8">
-        <v>41</v>
-      </c>
-      <c r="E8">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>23</v>
-      </c>
-      <c r="G8">
-        <v>19</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>22</v>
-      </c>
-      <c r="J8">
-        <v>18</v>
-      </c>
-      <c r="K8">
-        <v>28</v>
-      </c>
-      <c r="L8">
-        <v>27</v>
-      </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
-      <c r="N8">
-        <v>35</v>
-      </c>
-      <c r="O8">
-        <v>27</v>
-      </c>
-      <c r="P8">
-        <v>18</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>22</v>
-      </c>
-      <c r="S8">
-        <v>16</v>
-      </c>
-      <c r="T8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>25</v>
-      </c>
-      <c r="B9">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>44</v>
-      </c>
-      <c r="E9">
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>13</v>
-      </c>
-      <c r="H9">
-        <v>22</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>16</v>
-      </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
-      <c r="L9">
-        <v>13</v>
-      </c>
-      <c r="M9">
-        <v>15</v>
-      </c>
-      <c r="N9">
-        <v>48</v>
-      </c>
-      <c r="O9">
-        <v>46</v>
-      </c>
-      <c r="P9">
-        <v>16</v>
-      </c>
-      <c r="Q9">
-        <v>23</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>12</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>29</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>18</v>
-      </c>
-      <c r="I10">
-        <v>16</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>18</v>
-      </c>
-      <c r="L10">
-        <v>11</v>
-      </c>
-      <c r="M10">
-        <v>15</v>
-      </c>
-      <c r="N10">
-        <v>33</v>
-      </c>
-      <c r="O10">
-        <v>34</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>21</v>
-      </c>
-      <c r="R10">
-        <v>16</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>44</v>
-      </c>
-      <c r="E11">
-        <v>18</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>15</v>
-      </c>
-      <c r="H11">
-        <v>28</v>
-      </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
-      <c r="J11">
-        <v>18</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>11</v>
-      </c>
-      <c r="M11">
-        <v>21</v>
-      </c>
-      <c r="N11">
-        <v>51</v>
-      </c>
-      <c r="O11">
-        <v>50</v>
-      </c>
-      <c r="P11">
-        <v>18</v>
-      </c>
-      <c r="Q11">
-        <v>30</v>
-      </c>
-      <c r="R11">
-        <v>7</v>
-      </c>
-      <c r="S11">
-        <v>15</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>34</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>27</v>
-      </c>
-      <c r="I12">
-        <v>13</v>
-      </c>
-      <c r="J12">
-        <v>11</v>
-      </c>
-      <c r="K12">
-        <v>11</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>22</v>
-      </c>
-      <c r="N12">
-        <v>42</v>
-      </c>
-      <c r="O12">
-        <v>44</v>
-      </c>
-      <c r="P12">
-        <v>11</v>
-      </c>
-      <c r="Q12">
-        <v>30</v>
-      </c>
-      <c r="R12">
-        <v>13</v>
-      </c>
-      <c r="S12">
-        <v>11</v>
-      </c>
-      <c r="T12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>33</v>
-      </c>
-      <c r="B13">
-        <v>33</v>
-      </c>
-      <c r="C13">
-        <v>33</v>
-      </c>
-      <c r="D13">
-        <v>41</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>17</v>
-      </c>
-      <c r="G13">
-        <v>15</v>
-      </c>
-      <c r="H13">
-        <v>7</v>
-      </c>
-      <c r="I13">
-        <v>15</v>
-      </c>
-      <c r="J13">
-        <v>15</v>
-      </c>
-      <c r="K13">
-        <v>21</v>
-      </c>
-      <c r="L13">
-        <v>22</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>39</v>
-      </c>
-      <c r="O13">
-        <v>33</v>
-      </c>
-      <c r="P13">
-        <v>15</v>
-      </c>
-      <c r="Q13">
-        <v>8</v>
-      </c>
-      <c r="R13">
-        <v>15</v>
-      </c>
-      <c r="S13">
-        <v>12</v>
-      </c>
-      <c r="T13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>44</v>
-      </c>
-      <c r="B14">
-        <v>44</v>
-      </c>
-      <c r="C14">
-        <v>44</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>33</v>
-      </c>
-      <c r="F14">
-        <v>45</v>
-      </c>
-      <c r="G14">
-        <v>36</v>
-      </c>
-      <c r="H14">
-        <v>35</v>
-      </c>
-      <c r="I14">
-        <v>48</v>
-      </c>
-      <c r="J14">
-        <v>33</v>
-      </c>
-      <c r="K14">
-        <v>51</v>
-      </c>
-      <c r="L14">
-        <v>42</v>
-      </c>
-      <c r="M14">
-        <v>39</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>15</v>
-      </c>
-      <c r="P14">
-        <v>33</v>
-      </c>
-      <c r="Q14">
-        <v>37</v>
-      </c>
-      <c r="R14">
-        <v>48</v>
-      </c>
-      <c r="S14">
-        <v>36</v>
-      </c>
-      <c r="T14">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>50</v>
-      </c>
-      <c r="B15">
-        <v>50</v>
-      </c>
-      <c r="C15">
-        <v>50</v>
-      </c>
-      <c r="D15">
-        <v>33</v>
-      </c>
-      <c r="E15">
-        <v>34</v>
-      </c>
-      <c r="F15">
-        <v>45</v>
-      </c>
-      <c r="G15">
-        <v>36</v>
-      </c>
-      <c r="H15">
-        <v>27</v>
-      </c>
-      <c r="I15">
-        <v>46</v>
-      </c>
-      <c r="J15">
-        <v>34</v>
-      </c>
-      <c r="K15">
-        <v>50</v>
-      </c>
-      <c r="L15">
-        <v>44</v>
-      </c>
-      <c r="M15">
-        <v>33</v>
-      </c>
-      <c r="N15">
-        <v>15</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>34</v>
-      </c>
-      <c r="Q15">
-        <v>28</v>
-      </c>
-      <c r="R15">
-        <v>46</v>
-      </c>
-      <c r="S15">
-        <v>35</v>
-      </c>
-      <c r="T15">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>19</v>
-      </c>
-      <c r="C16">
-        <v>19</v>
-      </c>
-      <c r="D16">
-        <v>29</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>12</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>18</v>
-      </c>
-      <c r="I16">
-        <v>16</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>18</v>
-      </c>
-      <c r="L16">
-        <v>11</v>
-      </c>
-      <c r="M16">
-        <v>15</v>
-      </c>
-      <c r="N16">
-        <v>33</v>
-      </c>
-      <c r="O16">
-        <v>34</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>21</v>
-      </c>
-      <c r="R16">
-        <v>16</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>40</v>
-      </c>
-      <c r="B17">
-        <v>40</v>
-      </c>
-      <c r="C17">
-        <v>40</v>
-      </c>
-      <c r="D17">
-        <v>43</v>
-      </c>
-      <c r="E17">
-        <v>21</v>
-      </c>
-      <c r="F17">
-        <v>26</v>
-      </c>
-      <c r="G17">
-        <v>22</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>23</v>
-      </c>
-      <c r="J17">
-        <v>21</v>
-      </c>
-      <c r="K17">
-        <v>30</v>
-      </c>
-      <c r="L17">
-        <v>30</v>
-      </c>
-      <c r="M17">
-        <v>8</v>
-      </c>
-      <c r="N17">
-        <v>37</v>
-      </c>
-      <c r="O17">
-        <v>28</v>
-      </c>
-      <c r="P17">
-        <v>21</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>23</v>
-      </c>
-      <c r="S17">
-        <v>19</v>
-      </c>
-      <c r="T17">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>25</v>
-      </c>
-      <c r="C18">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>44</v>
-      </c>
-      <c r="E18">
-        <v>16</v>
-      </c>
-      <c r="F18">
-        <v>7</v>
-      </c>
-      <c r="G18">
-        <v>13</v>
-      </c>
-      <c r="H18">
-        <v>22</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>16</v>
-      </c>
-      <c r="K18">
-        <v>7</v>
-      </c>
-      <c r="L18">
-        <v>13</v>
-      </c>
-      <c r="M18">
-        <v>15</v>
-      </c>
-      <c r="N18">
-        <v>48</v>
-      </c>
-      <c r="O18">
-        <v>46</v>
-      </c>
-      <c r="P18">
-        <v>16</v>
-      </c>
-      <c r="Q18">
-        <v>23</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>12</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>21</v>
-      </c>
-      <c r="C19">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>33</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>16</v>
-      </c>
-      <c r="I19">
-        <v>12</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>15</v>
-      </c>
-      <c r="L19">
-        <v>11</v>
-      </c>
-      <c r="M19">
-        <v>12</v>
-      </c>
-      <c r="N19">
-        <v>36</v>
-      </c>
-      <c r="O19">
-        <v>35</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>19</v>
-      </c>
-      <c r="R19">
-        <v>12</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>25</v>
-      </c>
-      <c r="D20">
-        <v>44</v>
-      </c>
-      <c r="E20">
-        <v>16</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>13</v>
-      </c>
-      <c r="H20">
-        <v>22</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>16</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>13</v>
-      </c>
-      <c r="M20">
-        <v>15</v>
-      </c>
-      <c r="N20">
-        <v>48</v>
-      </c>
-      <c r="O20">
-        <v>46</v>
-      </c>
-      <c r="P20">
-        <v>16</v>
-      </c>
-      <c r="Q20">
-        <v>23</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>12</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
